--- a/Server/sensor_data.xlsx
+++ b/Server/sensor_data.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F38" sqref="A2:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="17.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.5" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.83203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="11.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="9.5" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -451,6 +458,28 @@
         <is>
           <t>Light Value</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-21 10:39:02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="E2" t="n">
+        <v>963</v>
+      </c>
+      <c r="F2" t="n">
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/Server/sensor_data.xlsx
+++ b/Server/sensor_data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,21 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F38" sqref="A2:F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col width="17.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="10.83203125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="11.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="9.5" bestFit="1" customWidth="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -463,23 +456,2883 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-21 10:39:02</t>
+          <t>2025-01-22 09:50:09</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E2" t="n">
+        <v>922</v>
+      </c>
+      <c r="F2" t="n">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-22 09:51:10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E3" t="n">
+        <v>864</v>
+      </c>
+      <c r="F3" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-22 09:52:10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E4" t="n">
+        <v>916</v>
+      </c>
+      <c r="F4" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-22 09:54:18</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E5" t="n">
+        <v>911</v>
+      </c>
+      <c r="F5" t="n">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-22 09:55:19</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>869</v>
+      </c>
+      <c r="F6" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-22 09:57:26</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>923</v>
+      </c>
+      <c r="F7" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-22 09:58:27</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>940</v>
+      </c>
+      <c r="F8" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-22 09:59:28</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>946</v>
+      </c>
+      <c r="F9" t="n">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:00:28</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>939</v>
+      </c>
+      <c r="F10" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:01:29</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>907</v>
+      </c>
+      <c r="F11" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:02:30</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E12" t="n">
+        <v>944</v>
+      </c>
+      <c r="F12" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:03:31</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>860</v>
+      </c>
+      <c r="F13" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:04:31</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="E14" t="n">
+        <v>862</v>
+      </c>
+      <c r="F14" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:05:32</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E15" t="n">
+        <v>863</v>
+      </c>
+      <c r="F15" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:06:33</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E16" t="n">
+        <v>887</v>
+      </c>
+      <c r="F16" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:07:33</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>778</v>
+      </c>
+      <c r="F17" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:08:33</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E18" t="n">
+        <v>772</v>
+      </c>
+      <c r="F18" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:10:39</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E19" t="n">
+        <v>789</v>
+      </c>
+      <c r="F19" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:11:39</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E20" t="n">
+        <v>787</v>
+      </c>
+      <c r="F20" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:12:40</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="E21" t="n">
+        <v>788</v>
+      </c>
+      <c r="F21" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:13:41</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E22" t="n">
+        <v>834</v>
+      </c>
+      <c r="F22" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:14:42</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E23" t="n">
+        <v>790</v>
+      </c>
+      <c r="F23" t="n">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:15:43</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E24" t="n">
+        <v>837</v>
+      </c>
+      <c r="F24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:16:44</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E25" t="n">
+        <v>846</v>
+      </c>
+      <c r="F25" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:17:45</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E26" t="n">
+        <v>839</v>
+      </c>
+      <c r="F26" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:18:46</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E27" t="n">
+        <v>840</v>
+      </c>
+      <c r="F27" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:19:46</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E28" t="n">
+        <v>826</v>
+      </c>
+      <c r="F28" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:20:47</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E29" t="n">
+        <v>814</v>
+      </c>
+      <c r="F29" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:21:49</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E30" t="n">
+        <v>842</v>
+      </c>
+      <c r="F30" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:22:49</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="E31" t="n">
+        <v>903</v>
+      </c>
+      <c r="F31" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:23:50</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>916</v>
+      </c>
+      <c r="F32" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:24:51</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>916</v>
+      </c>
+      <c r="F33" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:25:52</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E34" t="n">
+        <v>857</v>
+      </c>
+      <c r="F34" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:26:52</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>23</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E35" t="n">
+        <v>865</v>
+      </c>
+      <c r="F35" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:27:53</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E36" t="n">
+        <v>915</v>
+      </c>
+      <c r="F36" t="n">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:29:53</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>23</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E37" t="n">
+        <v>849</v>
+      </c>
+      <c r="F37" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:30:54</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>23</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E38" t="n">
+        <v>901</v>
+      </c>
+      <c r="F38" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:31:55</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>23</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E39" t="n">
+        <v>916</v>
+      </c>
+      <c r="F39" t="n">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:32:56</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E40" t="n">
+        <v>923</v>
+      </c>
+      <c r="F40" t="n">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:33:57</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E41" t="n">
+        <v>943</v>
+      </c>
+      <c r="F41" t="n">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:34:57</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E42" t="n">
+        <v>905</v>
+      </c>
+      <c r="F42" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:35:58</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E43" t="n">
+        <v>921</v>
+      </c>
+      <c r="F43" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:36:58</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>23.2</v>
       </c>
-      <c r="C2" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.39</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C44" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E44" t="n">
+        <v>889</v>
+      </c>
+      <c r="F44" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:38:00</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E45" t="n">
+        <v>885</v>
+      </c>
+      <c r="F45" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:39:01</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E46" t="n">
+        <v>849</v>
+      </c>
+      <c r="F46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:40:01</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E47" t="n">
+        <v>906</v>
+      </c>
+      <c r="F47" t="n">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:41:01</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E48" t="n">
+        <v>852</v>
+      </c>
+      <c r="F48" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:42:01</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E49" t="n">
+        <v>910</v>
+      </c>
+      <c r="F49" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:43:02</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32</v>
+      </c>
+      <c r="D50" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E50" t="n">
+        <v>914</v>
+      </c>
+      <c r="F50" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:44:02</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E51" t="n">
+        <v>906</v>
+      </c>
+      <c r="F51" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:45:03</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E52" t="n">
+        <v>912</v>
+      </c>
+      <c r="F52" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:46:04</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E53" t="n">
+        <v>898</v>
+      </c>
+      <c r="F53" t="n">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:47:04</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E54" t="n">
+        <v>854</v>
+      </c>
+      <c r="F54" t="n">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:48:05</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E55" t="n">
+        <v>833</v>
+      </c>
+      <c r="F55" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:49:06</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E56" t="n">
+        <v>840</v>
+      </c>
+      <c r="F56" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:50:06</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D57" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E57" t="n">
+        <v>890</v>
+      </c>
+      <c r="F57" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:51:07</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E58" t="n">
+        <v>968</v>
+      </c>
+      <c r="F58" t="n">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:52:07</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E59" t="n">
+        <v>943</v>
+      </c>
+      <c r="F59" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:53:07</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>33</v>
+      </c>
+      <c r="D60" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E60" t="n">
+        <v>933</v>
+      </c>
+      <c r="F60" t="n">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:54:08</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E61" t="n">
+        <v>959</v>
+      </c>
+      <c r="F61" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:55:09</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E62" t="n">
+        <v>957</v>
+      </c>
+      <c r="F62" t="n">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:56:09</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E63" t="n">
+        <v>958</v>
+      </c>
+      <c r="F63" t="n">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:57:10</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E64" t="n">
+        <v>910</v>
+      </c>
+      <c r="F64" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:58:10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E65" t="n">
+        <v>904</v>
+      </c>
+      <c r="F65" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-01-22 10:59:11</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E66" t="n">
+        <v>968</v>
+      </c>
+      <c r="F66" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:00:12</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D67" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E67" t="n">
+        <v>906</v>
+      </c>
+      <c r="F67" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:01:12</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E68" t="n">
+        <v>903</v>
+      </c>
+      <c r="F68" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:02:12</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E69" t="n">
+        <v>964</v>
+      </c>
+      <c r="F69" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:03:13</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E70" t="n">
+        <v>900</v>
+      </c>
+      <c r="F70" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:04:13</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E71" t="n">
+        <v>902</v>
+      </c>
+      <c r="F71" t="n">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:05:14</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E72" t="n">
+        <v>905</v>
+      </c>
+      <c r="F72" t="n">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:06:15</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E73" t="n">
+        <v>911</v>
+      </c>
+      <c r="F73" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:07:15</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E74" t="n">
         <v>963</v>
       </c>
-      <c r="F2" t="n">
-        <v>842</v>
+      <c r="F74" t="n">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:08:16</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E75" t="n">
+        <v>969</v>
+      </c>
+      <c r="F75" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:09:16</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>33</v>
+      </c>
+      <c r="D76" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E76" t="n">
+        <v>963</v>
+      </c>
+      <c r="F76" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:10:16</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E77" t="n">
+        <v>970</v>
+      </c>
+      <c r="F77" t="n">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:11:17</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E78" t="n">
+        <v>970</v>
+      </c>
+      <c r="F78" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:12:18</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="E79" t="n">
+        <v>964</v>
+      </c>
+      <c r="F79" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:13:18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E80" t="n">
+        <v>975</v>
+      </c>
+      <c r="F80" t="n">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:14:19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E81" t="n">
+        <v>910</v>
+      </c>
+      <c r="F81" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:16:20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E82" t="n">
+        <v>929</v>
+      </c>
+      <c r="F82" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:17:20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>32</v>
+      </c>
+      <c r="D83" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E83" t="n">
+        <v>902</v>
+      </c>
+      <c r="F83" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:18:21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E84" t="n">
+        <v>901</v>
+      </c>
+      <c r="F84" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:19:22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E85" t="n">
+        <v>901</v>
+      </c>
+      <c r="F85" t="n">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:20:23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E86" t="n">
+        <v>899</v>
+      </c>
+      <c r="F86" t="n">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:21:24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E87" t="n">
+        <v>901</v>
+      </c>
+      <c r="F87" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:22:24</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C88" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E88" t="n">
+        <v>901</v>
+      </c>
+      <c r="F88" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:23:25</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E89" t="n">
+        <v>902</v>
+      </c>
+      <c r="F89" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:24:26</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C90" t="n">
+        <v>32</v>
+      </c>
+      <c r="D90" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="E90" t="n">
+        <v>902</v>
+      </c>
+      <c r="F90" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:25:27</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E91" t="n">
+        <v>898</v>
+      </c>
+      <c r="F91" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:26:28</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E92" t="n">
+        <v>905</v>
+      </c>
+      <c r="F92" t="n">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:27:28</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C93" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E93" t="n">
+        <v>906</v>
+      </c>
+      <c r="F93" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:28:28</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C94" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E94" t="n">
+        <v>960</v>
+      </c>
+      <c r="F94" t="n">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:29:29</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E95" t="n">
+        <v>941</v>
+      </c>
+      <c r="F95" t="n">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:30:29</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E96" t="n">
+        <v>942</v>
+      </c>
+      <c r="F96" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:31:30</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E97" t="n">
+        <v>876</v>
+      </c>
+      <c r="F97" t="n">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:32:31</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C98" t="n">
+        <v>33</v>
+      </c>
+      <c r="D98" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E98" t="n">
+        <v>944</v>
+      </c>
+      <c r="F98" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:33:31</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E99" t="n">
+        <v>907</v>
+      </c>
+      <c r="F99" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:34:31</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E100" t="n">
+        <v>942</v>
+      </c>
+      <c r="F100" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:35:32</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="E101" t="n">
+        <v>876</v>
+      </c>
+      <c r="F101" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:36:32</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E102" t="n">
+        <v>870</v>
+      </c>
+      <c r="F102" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:37:33</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E103" t="n">
+        <v>928</v>
+      </c>
+      <c r="F103" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:38:34</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="E104" t="n">
+        <v>932</v>
+      </c>
+      <c r="F104" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:39:35</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E105" t="n">
+        <v>911</v>
+      </c>
+      <c r="F105" t="n">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:40:36</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="E106" t="n">
+        <v>875</v>
+      </c>
+      <c r="F106" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:41:36</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="E107" t="n">
+        <v>929</v>
+      </c>
+      <c r="F107" t="n">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:42:37</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="E108" t="n">
+        <v>880</v>
+      </c>
+      <c r="F108" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:43:38</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E109" t="n">
+        <v>870</v>
+      </c>
+      <c r="F109" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:44:39</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E110" t="n">
+        <v>873</v>
+      </c>
+      <c r="F110" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:45:40</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E111" t="n">
+        <v>866</v>
+      </c>
+      <c r="F111" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:46:41</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="E112" t="n">
+        <v>927</v>
+      </c>
+      <c r="F112" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:47:41</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="E113" t="n">
+        <v>918</v>
+      </c>
+      <c r="F113" t="n">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:48:42</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="E114" t="n">
+        <v>923</v>
+      </c>
+      <c r="F114" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:49:42</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>34</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="E115" t="n">
+        <v>871</v>
+      </c>
+      <c r="F115" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-01-22 11:50:42</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E116" t="n">
+        <v>894</v>
+      </c>
+      <c r="F116" t="n">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:04:28</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>21</v>
+      </c>
+      <c r="E117" t="n">
+        <v>601</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:05:28</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F118" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:10:22</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>21</v>
+      </c>
+      <c r="E119" t="n">
+        <v>601</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:16:22</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>21</v>
+      </c>
+      <c r="E120" t="n">
+        <v>601</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:16:27</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>21</v>
+      </c>
+      <c r="E121" t="n">
+        <v>601</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:17:28</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>34</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E122" t="n">
+        <v>979</v>
+      </c>
+      <c r="F122" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:18:36</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>21</v>
+      </c>
+      <c r="E123" t="n">
+        <v>601</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:19:36</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E124" t="n">
+        <v>985</v>
+      </c>
+      <c r="F124" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:20:37</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E125" t="n">
+        <v>981</v>
+      </c>
+      <c r="F125" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:21:37</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="E126" t="n">
+        <v>989</v>
+      </c>
+      <c r="F126" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:24:36</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>21</v>
+      </c>
+      <c r="E127" t="n">
+        <v>601</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:24:40</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>21</v>
+      </c>
+      <c r="E128" t="n">
+        <v>601</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:25:41</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E129" t="n">
+        <v>970</v>
+      </c>
+      <c r="F129" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:26:41</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F130" t="n">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:27:41</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E131" t="n">
+        <v>977</v>
+      </c>
+      <c r="F131" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:28:42</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F132" t="n">
+        <v>902</v>
       </c>
     </row>
   </sheetData>
